--- a/vacantes-php.xlsx
+++ b/vacantes-php.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,93 +424,93 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Desarrollador PhP en ISITA</v>
+        <v>Desarrollador PHP - Symfony Senior - Remoto</v>
       </c>
       <c r="B2" t="str">
-        <v>Sueldo oculto</v>
+        <v>$ 40,000 a 45,000 MXN (Neto)</v>
       </c>
       <c r="C2" t="str">
-        <v>Remoto: LATAM</v>
+        <v>Remoto: México</v>
       </c>
       <c r="D2" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E2" t="str">
-        <v>Inglés : Nivel Básico</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="F2" t="str">
-        <v>Desarrollador de soluciones basadas en plataformas PHP + Symfony con servicios soap/api y bases de datos.  Responsabilidades: - Análisis y documentación de los requisitos que se asignan a desarrollar. - Apoyar en creación de modelado de entidad - relación, diccionario de datos. - Analizar sistemas existentes y diseñar soluciones. - Participar en el desarrollo de aplicaciones construyendo código escalable, robusto y de calidad. - Participar en la determinación de tareas y tiempos para cumplir con un requisito a desarrollar. - Realizar pruebas unitarias del propio código generado. - Comunicar el estatus de actividades así tareas realizadas y tiempo invertido en ellas. Experiencia:  - 3+años de experiencia en desarrollo de aplicaciones web en lenguaje de programación PHP. - 2+años de experiencia en desarrollo de aplicaciones basados en microservicios. - 2+años de experiencia en análisis detallado de requerimientos funcionales. - 2+años de experiencia en desarrollo con  framework Symfony. - 2+años de experiencia en SQL. - 2+años de experiencia en manejo de Elastic Search. - 2+años de experiencia en el uso de versionamiento de código (Git Flow). - 2+años de experiencia consumiendo Api Rest. - Fundamentos de POO. - Desarrollo de aplicaciones Web responsivas. - Desarrollo de Rest APIs. - Análisis y documentación de requerimientos o historias de usuario. - Desarrollo de base datos (Procedimientos almacenados, tablas, vistas, funciones) MySQL. - Desarrollo de base datos no relacionales (Redis, Elastic Search). - Manejo de versionadores de código (Git). - Desarrollo basado en microservicios. - Desarrollo bajo CI / CD utilizando PipeLines y Kubernetes. Requeridos:                   - POO Arquitecturas SOA.                  - PHP Microservicios.                    - Symfony Kubernetes.                       -SQL, Redis, Elastic Search.                           -  Pipelines. - Git. - API Rest Ful. Opcionales: - Dockers. - React JS. - Cualquier otro Framework para PHP. Requeridas: - Trato eficiente con clientes tanto presencial como email, chat, teléfono o videoconferencia. - Buena comunicación. - Generación de documentos de análisis como casos de uso, historias de usuario, documentos funcionales, levantamiento de requerimientos. - Creación documentación técnica más compleja (manuales técnicos, manuales de soporte, modelados de base de datos, modelados de software, diagramas lógicos). - Manejo de herramientas de pruebas de vulnerabilidades de código. - Soporte a incidentes operativos. - Generación de pipeline en cloud computing como Azure o AWS. Deseables: - Manejo de contenedores y orquestadores (docker, kubernetes). - Conocimiento e implementación de Jenkins, PipeLines. - Nivel de inglés: Básico.</v>
+        <v>¡ÚNETE A NUESTRO EQUIPO COMO DESARROLLADOR PHP - SYMFONY 8! Somos una empresa mexicana con más de 25 años de experiencia en soluciones tecnológicas de alto impacto, comprometida con la innovación, la excelencia y el desarrollo de proyectos disruptivos en el ámbito financiero. Actualmente buscamos un Desarrollador PHP Senior con experiencia en Symfony 8 , para colaborar en el desarrollo de una solución de pagos y remesas de nueva generación , integrada con WhatsApp Business, Blockchain e Inteligencia Artificial . Requisitos: Licenciatura en Ingeniería en Sistemas, Computación, Informática o afín (titulado o pasante). Mínimo 5 años de experiencia en desarrollo backend con PHP y Symfony . Experiencia comprobable en entornos fintech , procesamiento de pagos y transacciones seguras. Dominio de PHP 8+ y Symfony 8 , incluyendo componentes como Messenger, Security, Validator y Workflow. Conocimiento en Doctrine ORM , consultas SQL eficientes, y uso de bases de datos como MySQL, PostgreSQL y Redis. Experiencia integrando pasarelas de pago (Stripe, PayPal, Adyen). Conocimientos sólidos en Blockchain (Ethereum, Hyperledger, Stellar), contratos inteligentes y tokenización. Integración con API de WhatsApp Business , chatbots y flujos de mensajería bidireccional. Experiencia con IA aplicada a pagos : PLN, detección de fraudes, scoring y analítica predictiva. Desarrollo seguro de APIs REST y GraphQL, con autenticación OAuth 2.0, JWT, HMAC y SSL/TLS. Manejo de AWS (EC2, RDS, Lambda, API Gateway), contenedores (Docker, Kubernetes) y CI/CD. Experiencia en entornos Agile/Scrum . Indispensable Ingles avanzado conversacional (B2-C1) Deseable: Integración de IA de Meta (WhatsApp). Conocimiento en CBDC, stablecoins y soluciones DeFi. Experiencia en tecnologías RegTech. Familiaridad con normas AML/KYC y cumplimiento regulatorio financiero (México y EE.UU.). Responsabilidades: Diseñar e implementar un motor de pagos y remesas escalable en Symfony 8. Integrar servicios de mensajería y verificación de usuarios vía WhatsApp. Incorporar funciones de IA para automatización de transacciones y prevención de fraudes. Garantizar la seguridad y el cumplimiento normativo de todas las funcionalidades desarrolladas. Optimizar el rendimiento para soportar alto volumen de transacciones en tiempo real. Ofrecemos: Salario competitivo y bonos por desempeño. Modalidad 100% remota . Oportunidad de trabajar en un proyecto fintech disruptivo e internacional . Excelente ambiente de trabajo colaborativo, dinámico y enfocado en innovación tecnológica. Crecimiento profesional en tecnologías emergentes: IA, Blockchain, Fintech, APIs, entre otros. Si cuentas con el perfil y estás listo para transformar el futuro de los pagos y remesas, ¡postúlate por este medio y forma parte de nuestro equipo!</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ingeniero/a Full Stack WordPress Senior - Híbrido en Capital Empresarial Horizonte</v>
+        <v>Desarrollador PhP en ISITA</v>
       </c>
       <c r="B3" t="str">
-        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+        <v>Sueldo oculto</v>
       </c>
       <c r="C3" t="str">
-        <v>Ciudad de México - Híbrido</v>
+        <v>Remoto: LATAM</v>
       </c>
       <c r="D3" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E3" t="str">
-        <v>Inglés : Nivel Avanzado</v>
+        <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F3" t="str">
-        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Ingeniero/a Full Stack WordPress Inglés Conversacional Obligatorio Para laborar en  CDMX o GDL o QRO o MTY Esquema Híbrido: 3 días en casa, 2 presenciales Requisitos: Experiencia de 3 a 6 años en puesto similar.  Experiencia comprobada desarrollando en WordPress (personalización avanzada de temas y plugins). Dominio de PHP, MySQL, JavaScript, HTML5 y CSS3. Conocimiento de frameworks y librerías frontend (React, Vue.js o similares es una ventaja). Familiaridad con herramientas de control de versiones como Git. Experiencia con entornos de desarrollo local (LocalWP, Docker, etc.) y despliegue en servidores o plataformas cloud. Buen entendimiento de SEO técnico, rendimiento web y seguridad en WordPress. Responsabilidades: Desarrollar, mantener y optimizar sitios web en WordPress, tanto desde el lado del servidor (PHP) como del cliente (HTML, CSS, JavaScript). Crear y personalizar temas y plugins de WordPress a medida. Integrar servicios de terceros y APIs REST o GraphQL. Asegurar la calidad del código, el rendimiento del sitio y su compatibilidad multiplataforma. Implementar buenas prácticas de seguridad, SEO técnico y accesibilidad web. Colaborar con diseñadores UX/UI y otros desarrolladores para entregar soluciones completas. Participar en despliegues, mantenimiento y soporte técnico de los sitios. Ofrecemos: Horario de Oficina Esquema 100% nomina Sueldo abierto a negociación de acuerdo a experiencia Prestaciones de Ley Prestaciones superiores (SGMM familiar, SV 1 millón, Vales de despensa, 30 días de aguinaldo, PTU) Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+        <v>Desarrollador de soluciones basadas en plataformas PHP + Symfony con servicios soap/api y bases de datos.  Responsabilidades: - Análisis y documentación de los requisitos que se asignan a desarrollar. - Apoyar en creación de modelado de entidad - relación, diccionario de datos. - Analizar sistemas existentes y diseñar soluciones. - Participar en el desarrollo de aplicaciones construyendo código escalable, robusto y de calidad. - Participar en la determinación de tareas y tiempos para cumplir con un requisito a desarrollar. - Realizar pruebas unitarias del propio código generado. - Comunicar el estatus de actividades así tareas realizadas y tiempo invertido en ellas. Experiencia:  - 3+años de experiencia en desarrollo de aplicaciones web en lenguaje de programación PHP. - 2+años de experiencia en desarrollo de aplicaciones basados en microservicios. - 2+años de experiencia en análisis detallado de requerimientos funcionales. - 2+años de experiencia en desarrollo con  framework Symfony. - 2+años de experiencia en SQL. - 2+años de experiencia en manejo de Elastic Search. - 2+años de experiencia en el uso de versionamiento de código (Git Flow). - 2+años de experiencia consumiendo Api Rest. - Fundamentos de POO. - Desarrollo de aplicaciones Web responsivas. - Desarrollo de Rest APIs. - Análisis y documentación de requerimientos o historias de usuario. - Desarrollo de base datos (Procedimientos almacenados, tablas, vistas, funciones) MySQL. - Desarrollo de base datos no relacionales (Redis, Elastic Search). - Manejo de versionadores de código (Git). - Desarrollo basado en microservicios. - Desarrollo bajo CI / CD utilizando PipeLines y Kubernetes. Requeridos:                   - POO Arquitecturas SOA.                  - PHP Microservicios.                    - Symfony Kubernetes.                       -SQL, Redis, Elastic Search.                           -  Pipelines. - Git. - API Rest Ful. Opcionales: - Dockers. - React JS. - Cualquier otro Framework para PHP. Requeridas: - Trato eficiente con clientes tanto presencial como email, chat, teléfono o videoconferencia. - Buena comunicación. - Generación de documentos de análisis como casos de uso, historias de usuario, documentos funcionales, levantamiento de requerimientos. - Creación documentación técnica más compleja (manuales técnicos, manuales de soporte, modelados de base de datos, modelados de software, diagramas lógicos). - Manejo de herramientas de pruebas de vulnerabilidades de código. - Soporte a incidentes operativos. - Generación de pipeline en cloud computing como Azure o AWS. Deseables: - Manejo de contenedores y orquestadores (docker, kubernetes). - Conocimiento e implementación de Jenkins, PipeLines. - Nivel de inglés: Básico.</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Desarrollador de WordPress Backend</v>
+        <v>Ruby Backend Developer Middle – Remoto en HIRELINE</v>
       </c>
       <c r="B4" t="str">
         <v>Sueldo oculto</v>
       </c>
       <c r="C4" t="str">
-        <v>Puebla - Híbrido</v>
+        <v>Remoto: LATAM</v>
       </c>
       <c r="D4" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E4" t="str">
-        <v>Inglés : Nivel Intermedio</v>
+        <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F4" t="str">
-        <v xml:space="preserve">Descripción del puesto Un desarrollador backend de WordPress, está encargado de trabajar en la parte técnica y las funcionalidades fundamentales del sitio web de WordPress. Esto implicará desarrollar y personalizar temas, integrar funcionalidades mediante plugins de terceros y APIs externas, así como optimizar el rendimiento del sitio. Además, implementará medidas de seguridad, mantendrá el sitio actualizado y realizará copias de seguridad periódicas. También desarrollará funcionalidades personalizadas según las especificaciones del cliente, utilizando lenguajes como PHP, JavaScript y SQL. Colaborará estrechamente con otros miembros del equipo para comprender las necesidades del proyecto y proporcionar actualizaciones sobre el progreso del desarrollo. HABILIDADES Y CUALIDADES PERSONALES Licenciatura en Informática, Ingeniería de Software o campo relacionado. Experiencia previa trabajando como Desarrollador de WordPress Backend. Conocimientos profundos de PHP y experiencia en el desarrollo de temas y plugins para WordPress. Experiencia en la integración de APIs RESTful y consumo de servicios web. Conocimientos sólidos de MySQL y optimización de bases de datos. Capacidad para trabajar de forma autónoma y en equipo, comunicación efectiva y habilidades de resolución de problemas. Inglés hablado y escrito, preferiblemente con capacidad para leer y comprender documentación técnica. DESCRIPCIÓN DEL TRABAJO Desarrollo y mantenimiento de plugins y temas personalizados para WordPress, asegurando la escalabilidad, rendimiento y seguridad del código. Integración de APIs de terceros y desarrollo de funcionalidades personalizadas según los requisitos del proyecto. Optimización de bases de datos y consultas para mejorar el rendimiento del sitio web. Implementación de soluciones técnicas para resolver problemas y mejorar la eficiencia del desarrollo. Colaboración estrecha con el equipo de frontend y diseñadores para asegurar la correcta implementación de la interfaz de usuario y la experiencia del usuario. Mantenimiento y actualización continua de sitios web existentes basados en WordPress, incluyendo la resolución de problemas y la aplicación de parches de seguridad. Investigación y evaluación de nuevas tecnologías y herramientas relacionadas con WordPress para mejorar los procesos de desarrollo. Prestaciones Prestaciones de Ley Prestaciones superiores a partir de los 3 meses Vales de despensa Seguro de gastos médicos mayores Treats Excelente ambiente laboral Esquema Híbrido </v>
+        <v>Estamos buscando un Desarrollador a Tiempo Completo para unirse a nuestro equipo. Alguien con experiencia y un sólido conocimiento en frameworks MVC (Ruby on Rails principalmente). Lo que buscamos Disponibilidad a tiempo completo. Amplia experiencia con: Frameworks MVC (Ruby on Rails) (requerido). PHP, Ruby, NodeJS, Vue (preferido). Conocimiento profundo de LEMP (Linux, Nginx, MySQL, PHP). Familiaridad con sistemas de Inteligencia Artificial, incluyendo LLMs (Modelos de Lenguaje Extensos), y su integración en aplicaciones. Experiencia usando herramientas de automatización como n8n, make, zapier. Experiencia usando Docker / contenedores. Puntos extra Si has ganado becas, competencias o recibido reconocimientos profesionales/académicos. Experiencia en diseño, despliegue y mantenimiento de aplicaciones web. Dominio del inglés (lectura y escritura). Responsabilidades Diseño, desarrollo y pruebas de aplicaciones web. Instalación, despliegue y soporte de aplicaciones en servidores virtuales. Colaborar en reuniones de equipo para definir, priorizar y refinar funcionalidades. Estimar y reportar el tiempo de desarrollo y la complejidad de las tareas asignadas. Aprovechar la IA y los LLMs para optimizar flujos de trabajo y mejorar aplicaciones. Desarrollar experiencia en Linux, redes, seguridad, aplicaciones en tiempo real e infraestructura de telecomunicaciones en Norteamérica. Lo que ofrecemos Un rol dentro de un equipo dinámico, colaborativo y con visión de futuro. Oportunidades para trabajar con tecnologías de punta, incluyendo IA/LLMs. Desafíos complejos que te harán crecer profesional y técnicamente. La oportunidad de liderar el desarrollo de soluciones impactantes en un entorno ágil y acelerado. .</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Desarrollador web fullstack en Idea15</v>
+        <v>Ingeniero/a Full Stack WordPress Senior - Híbrido en Capital Empresarial Horizonte</v>
       </c>
       <c r="B5" t="str">
-        <v>$ 20,000 a 25,000 MXN (Neto)</v>
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
       </c>
       <c r="C5" t="str">
-        <v>Puebla - Híbrido</v>
+        <v>Ciudad de México - Híbrido</v>
       </c>
       <c r="D5" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E5" t="str">
-        <v>Inglés : Nivel Básico</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve">Descripción del puesto: Desarrollador Full Stack (Laravel, Vue.js) Modalidad: Híbrido Sobre nosotros En IDEA15, desarrollamos soluciones tecnológicas innovadoras enfocadas en automatización fiscal, facturación electrónica y sistemas administrativos para empresas en México. Valoramos la creatividad, la colaboración y el compromiso con la excelencia. Nuestro equipo es diverso y apasionado por crear productos funcionales, escalables y de alto impacto. Lo que harás - Desarrollar y mantener aplicaciones web utilizando Laravel y Vue.js. - Colaborar con equipos multifuncionales para definir, diseñar y enviar nuevas funcionalidades. - Optimizar aplicaciones para máxima velocidad y escalabilidad. - Participar en revisiones de código y fomentar las mejores prácticas de desarrollo. Lo que buscamos Habilidades obligatorias: - Experiencia comprobable en Laravel (PHP) y Vue.js con TypeScript. - Dominio de GIT para control de versiones. - Experiencia con bases de datos MySQL y PostgreSQL. Habilidades deseables: - Conocimiento de AdonisJS Framework. - Experiencia con TDD (Test Driven Development). - Buenas prácticas de documentación y trabajo colaborativo. Prestaciones y beneficios - Días de vacaciones y días personales. - Oportunidades de desarrollo profesional. - Ambiente de trabajo flexible y colaborativo. </v>
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Ingeniero/a Full Stack WordPress Inglés Conversacional Obligatorio Para laborar en  CDMX o GDL o QRO o MTY Esquema Híbrido: 3 días en casa, 2 presenciales Requisitos: Experiencia de 3 a 6 años en puesto similar.  Experiencia comprobada desarrollando en WordPress (personalización avanzada de temas y plugins). Dominio de PHP, MySQL, JavaScript, HTML5 y CSS3. Conocimiento de frameworks y librerías frontend (React, Vue.js o similares es una ventaja). Familiaridad con herramientas de control de versiones como Git. Experiencia con entornos de desarrollo local (LocalWP, Docker, etc.) y despliegue en servidores o plataformas cloud. Buen entendimiento de SEO técnico, rendimiento web y seguridad en WordPress. Responsabilidades: Desarrollar, mantener y optimizar sitios web en WordPress, tanto desde el lado del servidor (PHP) como del cliente (HTML, CSS, JavaScript). Crear y personalizar temas y plugins de WordPress a medida. Integrar servicios de terceros y APIs REST o GraphQL. Asegurar la calidad del código, el rendimiento del sitio y su compatibilidad multiplataforma. Implementar buenas prácticas de seguridad, SEO técnico y accesibilidad web. Colaborar con diseñadores UX/UI y otros desarrolladores para entregar soluciones completas. Participar en despliegues, mantenimiento y soporte técnico de los sitios. Ofrecemos: Horario de Oficina Esquema 100% nomina Sueldo abierto a negociación de acuerdo a experiencia Prestaciones de Ley Prestaciones superiores (SGMM familiar, SV 1 millón, Vales de despensa, 30 días de aguinaldo, PTU) Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Senior Software Engineer (AWS) - Remoto en Caylent</v>
+        <v>Desarrollador de WordPress Backend</v>
       </c>
       <c r="B6" t="str">
         <v>Sueldo oculto</v>
       </c>
       <c r="C6" t="str">
-        <v>Remoto: México</v>
+        <v>Puebla - Híbrido</v>
       </c>
       <c r="D6" t="str">
         <v>Empleado de tiempo completo</v>
@@ -519,27 +519,27 @@
         <v>Inglés : Nivel Intermedio</v>
       </c>
       <c r="F6" t="str">
-        <v>The Mission We are seeking a talented Senior Software Engineer to join our growing Cloud Native Applications team. The right candidate is someone who has a deep understanding of building applications in the cloud and utilizing cloud native services to make applications more reliable and scalable. Your mission will be to develop applications and services using cloud native technologies for our customers.   Your Assignment You will be a mission specialist, rocketing Customers forward as you participate in development activities, standups, sprint planning retrospectives, and more. You will demonstrate Caylent's commitment to being an Exceptional Partner by delivering well-documented, tested, and production-ready code to our customers while diving deep into any problems that may arise across their environments. You will Lead By Example, using your expertise in AWS Services and API development to deliver solutions defined by your Architect, and coach less-experienced developers as your team builds together. You will demonstrate a passion to Stay Curious as you mentor peers, tackle new technologies, and learn from our word-class team of engineers.   Your Qualifications Expertise in underlying web technologies like HTML and CSS, and experience developing with a framework like React, Vue, Angular, MVC .Net, etc. Experience with modern server-side scripting languages (python, node.js, php, ruby, etc.). In-depth knowledge of relational databases (PostgreSQL, MySQL, etc), NoSQL databases (MongoDB, DynamoDB, etc), and object stores (S3, etc). Demonstrated experience in building RESTful services and API integrations. Development experience on a major cloud platform (Azure, AWS, or GCP). Understanding of modern application architectures (event driven, message queues, microservices, etc). Proven ability to learn new technology quickly and effectively.  Desire to integrate innovative technologies into development workflow. Familiarity with Generative AI technologies. Self organizing, detail oriented, and high achieving. Ability to work independently. Excellent written and verbal communication.   Preferred Qualifications BS in a computing-related field, or commensurate experience. Experience with testing and automation. Experience with UI/UX. Experience with Large Language Models (LLM) and Generative AI. Experience with app dev acceleration tools like Amazon Q Developer, GitHub CoPilot, Cursor.AI, or similar. Experience building and maintaining CI/CD pipelines. Experience configuring AWS resources. Experience with infrastructure as code tooling (SAM, Cloudformation, Terraform, etc).   Benefits 100% remote work Medical Insurance for you and eligible dependents Generous holidays and flexible PTO Competitive phantom equity Paid for exams and certifications Peer bonus awards State of the art laptop and tools Equipment &amp; Office Stipend Individual professional development plan Annual stipend for Learning and Development Work with an amazing worldwide team and in an incredible corporate culture Kindly submit your resume in English, as it’s required for this role. Caylent is a place where everyone belongs.  We celebrate diversity and are committed to creating an inclusive environment for all employees. Our approach helps us to build a winning team that represents a variety of backgrounds, perspectives, and abilities. So, regardless of how your diversity expresses itself, you can find a home here at Caylent.    We are proud to be an equal opportunity employer. We prohibit discrimination and harassment of any kind based on race, color, religion, national origin, sex (including pregnancy), sexual orientation, gender identity, gender expression, age, veteran status, genetic information, disability, or other applicable legally protected characteristics. If you would like to request an accommodation due to a disability, please contact us.</v>
+        <v xml:space="preserve">Descripción del puesto Un desarrollador backend de WordPress, está encargado de trabajar en la parte técnica y las funcionalidades fundamentales del sitio web de WordPress. Esto implicará desarrollar y personalizar temas, integrar funcionalidades mediante plugins de terceros y APIs externas, así como optimizar el rendimiento del sitio. Además, implementará medidas de seguridad, mantendrá el sitio actualizado y realizará copias de seguridad periódicas. También desarrollará funcionalidades personalizadas según las especificaciones del cliente, utilizando lenguajes como PHP, JavaScript y SQL. Colaborará estrechamente con otros miembros del equipo para comprender las necesidades del proyecto y proporcionar actualizaciones sobre el progreso del desarrollo. HABILIDADES Y CUALIDADES PERSONALES Licenciatura en Informática, Ingeniería de Software o campo relacionado. Experiencia previa trabajando como Desarrollador de WordPress Backend. Conocimientos profundos de PHP y experiencia en el desarrollo de temas y plugins para WordPress. Experiencia en la integración de APIs RESTful y consumo de servicios web. Conocimientos sólidos de MySQL y optimización de bases de datos. Capacidad para trabajar de forma autónoma y en equipo, comunicación efectiva y habilidades de resolución de problemas. Inglés hablado y escrito, preferiblemente con capacidad para leer y comprender documentación técnica. DESCRIPCIÓN DEL TRABAJO Desarrollo y mantenimiento de plugins y temas personalizados para WordPress, asegurando la escalabilidad, rendimiento y seguridad del código. Integración de APIs de terceros y desarrollo de funcionalidades personalizadas según los requisitos del proyecto. Optimización de bases de datos y consultas para mejorar el rendimiento del sitio web. Implementación de soluciones técnicas para resolver problemas y mejorar la eficiencia del desarrollo. Colaboración estrecha con el equipo de frontend y diseñadores para asegurar la correcta implementación de la interfaz de usuario y la experiencia del usuario. Mantenimiento y actualización continua de sitios web existentes basados en WordPress, incluyendo la resolución de problemas y la aplicación de parches de seguridad. Investigación y evaluación de nuevas tecnologías y herramientas relacionadas con WordPress para mejorar los procesos de desarrollo. Prestaciones Prestaciones de Ley Prestaciones superiores a partir de los 3 meses Vales de despensa Seguro de gastos médicos mayores Treats Excelente ambiente laboral Esquema Híbrido </v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Desarrollador HubSpot Senior - Híbrido en INGENES</v>
+        <v>Desarrollador web fullstack en Idea15</v>
       </c>
       <c r="B7" t="str">
-        <v>$ 25,000 a 30,000 MXN (Bruto)</v>
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
       </c>
       <c r="C7" t="str">
-        <v>Ciudad de México - Híbrido</v>
+        <v>Puebla - Híbrido</v>
       </c>
       <c r="D7" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E7" t="str">
-        <v>Inglés : Nivel Intermedio</v>
+        <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F7" t="str">
-        <v>¡En Ingenes buscamos tu Talento ! Contamos con más de 19 años transformando vidas, más de 50,000 bebés en casa nos respaldan como el Instituto de Reproducción Asistida líder en América Latina. Por expansión estamos en búsqueda talento que sume a esta gran familia, talento que inspire, talento que comparta y viva nuestros valores, y sobre todo talento comprometido a trabajar en equipos multidisciplinarios para construir juntos una experiencia única para nuestros pacientes y para nuestra gran familia. Únete a este gran proyecto sumando con tu talento como  DESARROLLADOR WEB EN HUBSPOT  y sigamos “Haciendo Familia Juntos” Actividades: Creación, administración y optimización de flujos de trabajo (Workflows) en HubSpot. Configuración e integración de HubSpot CRM con herramientas externas mediante API y webhooks. Desarrollo de elementos personalizados dentro del entorno HubSpot (correos, plantillas, listas, etc). Generación de reportes avanzados de marketing, ventas y servicios dentro del CRM. Supervisión y documentación técnica de configuraciones y desarrollos realizados en HubSpot. Requisitos: Ingeniería en Sistemas, Tecnologías de la Información o afines. 3 años de experiencia probada en CRM (Hubspot) Inglés intermedio Al menos 3 certificaciones de Hubspot en alguno de los módulos (ventas, marketing, reportes, etc) Herramientas (must) HubSpot (Marketing Hub, Sales Hub, CMS Hub, Service Hub). Conocimiento básico de HUBL (HubSpot Markup Language). JSON y manejo de APIs REST para integración con HubSpot. Lenguajes de programación web: JavaScript, PHP. Conocimientos en HTML5, CSS3, Bootstrap. Únete al equipo Ingenes, ofrecemos: Sueldo Base Prestaciones de ley 15 días de vacaciones</v>
+        <v xml:space="preserve">Descripción del puesto: Desarrollador Full Stack (Laravel, Vue.js) Modalidad: Híbrido Sobre nosotros En IDEA15, desarrollamos soluciones tecnológicas innovadoras enfocadas en automatización fiscal, facturación electrónica y sistemas administrativos para empresas en México. Valoramos la creatividad, la colaboración y el compromiso con la excelencia. Nuestro equipo es diverso y apasionado por crear productos funcionales, escalables y de alto impacto. Lo que harás - Desarrollar y mantener aplicaciones web utilizando Laravel y Vue.js. - Colaborar con equipos multifuncionales para definir, diseñar y enviar nuevas funcionalidades. - Optimizar aplicaciones para máxima velocidad y escalabilidad. - Participar en revisiones de código y fomentar las mejores prácticas de desarrollo. Lo que buscamos Habilidades obligatorias: - Experiencia comprobable en Laravel (PHP) y Vue.js con TypeScript. - Dominio de GIT para control de versiones. - Experiencia con bases de datos MySQL y PostgreSQL. Habilidades deseables: - Conocimiento de AdonisJS Framework. - Experiencia con TDD (Test Driven Development). - Buenas prácticas de documentación y trabajo colaborativo. Prestaciones y beneficios - Días de vacaciones y días personales. - Oportunidades de desarrollo profesional. - Ambiente de trabajo flexible y colaborativo. </v>
       </c>
     </row>
     <row r="8">
@@ -559,52 +559,32 @@
         <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="F8" t="str">
-        <v>As a Developer  you’ll be working as part of an integrated team to shorten the runway between smart, interesting brands and beautiful creative that can work in any medium. Reporting directly to our Director of Technology, you’ll act as a lead developer across several client accounts and work with others in our dev team along the way. Specifically you’ll be: ● Working in a creative team setting to ideate and develop strong creative ideas including planning, designing, and ultimately building our digital platforms ● Mentoring others, both on the development team, and cross-disciplinary peers, on best practice and new, innovative approaches and technologies ● Taking initiative to maintain strong knowledge of and keen interest in emerging tools and technologies ● Working in Agile and Jira to optimize how our teams work ● Create frequent pull requests to gain insight from other team members as well as communicate deliverables by showing what is complete. ● Help translate client feedback into clear next steps, often with Accounts and/or Production ● Communicates effectively, both internally and with producers/AMs/designers; to update progress, handle conflict resolution, and keep everyone updated Our Must-Haves ● 5+ years of professional experience with Web Development ● BA/BS degree or higher, preferably in CS or a related field ● Able to work with AWS and Linux server administration to set up and deploy new sites ● Able to create semantically correct and accessible HTML ● Expertise in JavaScript and other JavaScript frameworks like React and Next.js ● Expertise in CSS, with good judgment for what can be done in CSS without reverting to a JavaScript fix ● Complete understanding of git branching, merging and rebasing ● Experience with PHP a plus ● Strong proficiency with MySQL databases ● Excellent analytical and communication skills to share your ideas with the team and our clients Lines of Report Reporting to: Director of Technology Direct reports include: NA .........................................</v>
+        <v>As a Developer  you’ll be working as part of an integrated team to shorten the runway between smart, interesting brands and beautiful creative that can work in any medium. Reporting directly to our Director of Technology, you’ll act as a lead developer across several client accounts and work with others in our dev team along the way. Specifically you’ll be: ● Working in a creative team setting to ideate and develop strong creative ideas including planning, designing, and ultimately building our digital platforms ● Mentoring others, both on the development team, and cross-disciplinary peers, on best practice and new, innovative approaches and technologies ● Taking initiative to maintain strong knowledge of and keen interest in emerging tools and technologies ● Working in Agile and Jira to optimize how our teams work ● Create frequent pull requests to gain insight from other team members as well as communicate deliverables by showing what is complete. ● Help translate client feedback into clear next steps, often with Accounts and/or Production ● Communicates effectively, both internally and with producers/AMs/designers; to update progress, handle conflict resolution, and keep everyone updated Our Must-Haves ● 5+ years of professional experience with Web Development ● BA/BS degree or higher, preferably in CS or a related field ● Able to work with AWS and Linux server administration to set up and deploy new sites ● Able to create semantically correct and accessible HTML ● Expertise in JavaScript and other JavaScript frameworks like React and Next.js ● Expertise in CSS, with good judgment for what can be done in CSS without reverting to a JavaScript fix ● Complete understanding of git branching, merging and rebasing ● Experience with PHP a plus ● Strong proficiency with MySQL databases ● Excellent analytical and communication skills to share your ideas with the team and our clients Lines of Report Reporting to: Director of Technology Direct reports include: NA ..........................................</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>QA Engineer Postman Middle Senior</v>
+        <v>Desarrollador .NET SQL Middle en Origis Consulting</v>
       </c>
       <c r="B9" t="str">
-        <v>$ 1,250 a 1,499 USD (Neto)</v>
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
       </c>
       <c r="C9" t="str">
-        <v>Nuevo León</v>
+        <v>Ciudad de México</v>
       </c>
       <c r="D9" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E9" t="str">
-        <v>Inglés : Nivel Intermedio</v>
+        <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F9" t="str">
-        <v>Software QA Engineer Empresa líder en servicios de conmutador para diversos canales de comunicación, busca Ingenieros de Pruebas de Software para optimizar nuestros procesos internos. El Software QA Manual Engineer se enfocará en pruebas funcionales manuales, diseño de casos de prueba y detección de errores. Este rol requiere trabajo en equipo , atención al detalle , resolución de problemas y un enfoque centrado en el usuario final . Responsabilidades: Desarrollar planes y casos de prueba claros, concisos y detallados. Identificar los requisitos de las pruebas a partir de las especificaciones y/o historias de usuarios. Mantener actualizados los casos de prueba funcionales y otros artefactos de prueba. Ejecutar casos de prueba y detectar errores en los aplicativos . Identificar y escalar cualquier problema potencial de calidad según el proceso definido. Verificar la validez de los resultados desde los elementos que conforman los aplicativos (interfaces, base de datos, etc.). Colaborar estrechamente con otros miembros del equipo, desarrolladores y/o enfocados a productos. Trabajar con otros miembros del equipo de control de calidad y de automatización para garantizar una cobertura de pruebas adecuada . Requisitos: Grado en Ingeniería en Sistemas , Ingeniería de Software , Ciencias de la Computación o afín. Experiencia demostrada en desarrollo de software y en aseguramiento de calidad del software . Conocimientos de las metodologías, herramientas y procesos de control de calidad del software . Excelente conocimiento de los distintos conceptos de prueba (por ejemplo, funcional, de usabilidad, de rendimiento). Experiencia mínima de 2 a 3 años en tareas relacionadas a pruebas de calidad. Experiencia en la creación de planes de pruebas . Experiencia en pruebas sobre APIs . Uso básico de herramientas build REST API (Postman o su equivalente). Experiencia en el diseño de casos de prueba y uso de técnicas de diseño de pruebas. Experiencia en pruebas manuales , reportes y seguimiento de errores. Conocimiento básico del protocolo y la sintaxis de HTTP, XML, JSON . Experiencia en pruebas sobre UI/UX . Conocimiento básico sobre lenguajes de programación (PHP, Javascript o Python). Conocimiento básico en gestores de bases de datos (MySQL o similares). Familiarización con herramientas de gestión de proyectos y herramientas de gestión de pruebas (JIRA, Mantis, o su equivalente). Experiencia en ambientes de trabajo ágiles y agile test . Inglés intermedio escrito y leído. Deseables: Experiencia ejecutando pruebas móviles sobre dispositivos reales o desde plataformas como BrowserStack, Genymotion, o herramientas similares. Conocimiento básico en base de datos NoSQL (MongoDB o su equivalente). Ofrecemos: · Sueldo negociable . · Prestaciones de ley . · Trabajo 100% remoto . · Ambiente de trabajo startup . · Oportunidades de crecimiento profesional y económico . · Bonos de desempeño .</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Desarrollador .NET SQL Middle en Origis Consulting</v>
-      </c>
-      <c r="B10" t="str">
-        <v>$ 20,000 a 25,000 MXN (Neto)</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Ciudad de México</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Empleado de tiempo completo</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Inglés : Nivel Básico</v>
-      </c>
-      <c r="F10" t="str">
         <v>Profesional responsable de brindar soporte técnico especializado (Help Desk), así como del desarrollo, generación y análisis de reportes y bases de datos. Participa activamente en proyectos de desarrollo utilizando tecnologías .NET y servicios en la nube mediante Microsoft Azure. Este rol combina funciones operativas con el desarrollo de soluciones personalizadas para clientes internos y externos. Requisitos: Licenciatura e ingeniería en Sistemas de Información (Pasante o titulado)        Experiencia mínimo un 1 año en: ·           Bases de datos (consultas, cursores, manejo de procesos, análisis de información). ·           Desarrollo en PHP (manejo de librerías, conexión a bases de datos, generación de reportes). ·           Programación en C# y lenguaje .net. ·           Lógica de programación. Conocimientos en: ·           SQL intermedio (consultas, manejo de datos, análisis). ·           PHP básico / intermedio ·           C# básico ·           Lógica de programación ·           Conocimiento en HTML, JavaScript, Java ·           Generación de consultas en SQL ·           Excel básico/intermedio ·</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/vacantes-php.xlsx
+++ b/vacantes-php.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,7 +479,7 @@
         <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F4" t="str">
-        <v>Estamos buscando un Desarrollador a Tiempo Completo para unirse a nuestro equipo. Alguien con experiencia y un sólido conocimiento en frameworks MVC (Ruby on Rails principalmente). Lo que buscamos Disponibilidad a tiempo completo. Amplia experiencia con: Frameworks MVC (Ruby on Rails) (requerido). PHP, Ruby, NodeJS, Vue (preferido). Conocimiento profundo de LEMP (Linux, Nginx, MySQL, PHP). Familiaridad con sistemas de Inteligencia Artificial, incluyendo LLMs (Modelos de Lenguaje Extensos), y su integración en aplicaciones. Experiencia usando herramientas de automatización como n8n, make, zapier. Experiencia usando Docker / contenedores. Puntos extra Si has ganado becas, competencias o recibido reconocimientos profesionales/académicos. Experiencia en diseño, despliegue y mantenimiento de aplicaciones web. Dominio del inglés (lectura y escritura). Responsabilidades Diseño, desarrollo y pruebas de aplicaciones web. Instalación, despliegue y soporte de aplicaciones en servidores virtuales. Colaborar en reuniones de equipo para definir, priorizar y refinar funcionalidades. Estimar y reportar el tiempo de desarrollo y la complejidad de las tareas asignadas. Aprovechar la IA y los LLMs para optimizar flujos de trabajo y mejorar aplicaciones. Desarrollar experiencia en Linux, redes, seguridad, aplicaciones en tiempo real e infraestructura de telecomunicaciones en Norteamérica. Lo que ofrecemos Un rol dentro de un equipo dinámico, colaborativo y con visión de futuro. Oportunidades para trabajar con tecnologías de punta, incluyendo IA/LLMs. Desafíos complejos que te harán crecer profesional y técnicamente. La oportunidad de liderar el desarrollo de soluciones impactantes en un entorno ágil y acelerado. .</v>
+        <v>Estamos buscando un Desarrollador a Tiempo Completo para unirse a nuestro equipo. Alguien con experiencia y un sólido conocimiento en frameworks MVC (Ruby on Rails principalmente). Lo que buscamos Disponibilidad a tiempo completo. Amplia experiencia con: Frameworks MVC (Ruby on Rails) (requerido). PHP, Ruby, NodeJS, Vue (preferido). Conocimiento profundo de LEMP (Linux, Nginx, MySQL, PHP). Familiaridad con sistemas de Inteligencia Artificial, incluyendo LLMs (Modelos de Lenguaje Extensos), y su integración en aplicaciones. Experiencia usando herramientas de automatización como n8n, make, zapier. Experiencia usando Docker / contenedores. Puntos extra Si has ganado becas, competencias o recibido reconocimientos profesionales/académicos. Experiencia en diseño, despliegue y mantenimiento de aplicaciones web. Dominio del inglés (lectura y escritura). Responsabilidades Diseño, desarrollo y pruebas de aplicaciones web. Instalación, despliegue y soporte de aplicaciones en servidores virtuales. Colaborar en reuniones de equipo para definir, priorizar y refinar funcionalidades. Estimar y reportar el tiempo de desarrollo y la complejidad de las tareas asignadas. Aprovechar la IA y los LLMs para optimizar flujos de trabajo y mejorar aplicaciones. Desarrollar experiencia en Linux, redes, seguridad, aplicaciones en tiempo real e infraestructura de telecomunicaciones en Norteamérica. Lo que ofrecemos Un rol dentro de un equipo dinámico, colaborativo y con visión de futuro. Oportunidades para trabajar con tecnologías de punta, incluyendo IA/LLMs. Desafíos complejos que te harán crecer profesional y técnicamente. La oportunidad de liderar el desarrollo de soluciones impactantes en un entorno ágil y acelerado. ...</v>
       </c>
     </row>
     <row r="5">
@@ -524,67 +524,87 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Desarrollador web fullstack en Idea15</v>
+        <v>Developer Coordinador Full-Stack Senior en Kc Talent</v>
       </c>
       <c r="B7" t="str">
-        <v>$ 20,000 a 25,000 MXN (Neto)</v>
+        <v>$ 35,000 a 40,000 MXN (Neto)</v>
       </c>
       <c r="C7" t="str">
-        <v>Puebla - Híbrido</v>
+        <v>Jalisco</v>
       </c>
       <c r="D7" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E7" t="str">
-        <v>Inglés : Nivel Básico</v>
+        <v>Inglés : Nivel Intermedio</v>
       </c>
       <c r="F7" t="str">
-        <v xml:space="preserve">Descripción del puesto: Desarrollador Full Stack (Laravel, Vue.js) Modalidad: Híbrido Sobre nosotros En IDEA15, desarrollamos soluciones tecnológicas innovadoras enfocadas en automatización fiscal, facturación electrónica y sistemas administrativos para empresas en México. Valoramos la creatividad, la colaboración y el compromiso con la excelencia. Nuestro equipo es diverso y apasionado por crear productos funcionales, escalables y de alto impacto. Lo que harás - Desarrollar y mantener aplicaciones web utilizando Laravel y Vue.js. - Colaborar con equipos multifuncionales para definir, diseñar y enviar nuevas funcionalidades. - Optimizar aplicaciones para máxima velocidad y escalabilidad. - Participar en revisiones de código y fomentar las mejores prácticas de desarrollo. Lo que buscamos Habilidades obligatorias: - Experiencia comprobable en Laravel (PHP) y Vue.js con TypeScript. - Dominio de GIT para control de versiones. - Experiencia con bases de datos MySQL y PostgreSQL. Habilidades deseables: - Conocimiento de AdonisJS Framework. - Experiencia con TDD (Test Driven Development). - Buenas prácticas de documentación y trabajo colaborativo. Prestaciones y beneficios - Días de vacaciones y días personales. - Oportunidades de desarrollo profesional. - Ambiente de trabajo flexible y colaborativo. </v>
+        <v xml:space="preserve">Ingeniero de Sistemas Developer Coordinador Ingeniero de Sistemas con sólida experiencia en desarrollo web full-stack y coordinación de equipos técnicos. Con más de 3 años de experiencia liderando proyectos tecnológicos desde la concepción hasta la entrega, combinando habilidades técnicas profundas con una visión estratégica orientada a resultados. Capaz de trabajar en entornos ágiles (SCRUM), fomentar la colaboración entre equipos y asegurar entregas de calidad en tiempo y forma. Habilidades Técnicas: Frontend: Lenguajes: HTML5, JavaScript Frameworks: React.js, Angular, Vue.js Backend: Lenguajes: PHP, Python, Java Frameworks y herramientas: Node.js, Express.js, Django Bases de Datos: Relacionales: MySQL, PostgreSQL NoSQL: MongoDB, Firebase DevOps &amp; Nube: Control de versiones con Git (GitHub, GitLab, Bitbucket) Conocimientos básicos en AWS (EC2, S3, RDS, IAM) Metodologías Ágiles: Experiencia práctica trabajando con SCRUM (uso de Jira, Trello, Clickup)   Habilidades de Coordinación: Planificación y seguimiento de proyectos técnicos Facilitación de reuniones diarias, retrospectivas y planificación de sprints Coordinación de equipos de desarrolladores frontend y backend Traducción de requerimientos técnicos a lenguaje de negocio Garantizar buenas prácticas de desarrollo, integración continua y control de calidad Competencias Personales: Liderazgo técnico y toma de decisiones Comunicación clara y efectiva Resolución de problemas y pensamiento analítico Proactividad y adaptabilidad a nuevas tecnologías Intereses Profesionales: Desarrollo de arquitecturas escalables y robustas Mejora continua de procesos de desarrollo ágil Implementación de soluciones cloud y serverless SUELDO Y PRESTACIONES: ·        Contrato fijo, presencial ·        Horario L-V 9-2 y 4-7 ·        Esquema mixto / Pago Quincenal ·        Aguinaldo 20 días ·        Prestaciones de Ley ·        Caja de ahorro ·        Servicio Médico Particular ·        Sueldo mensual: 35,000 a 40,000  Ubicación: Guadalajara Zona: Av. México y López Mateos </v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Web Developer - Remoto en HIRELINE</v>
+        <v>Desarrollador web fullstack en Idea15</v>
       </c>
       <c r="B8" t="str">
-        <v>Sueldo oculto</v>
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
       </c>
       <c r="C8" t="str">
-        <v>Remoto: LATAM</v>
+        <v>Puebla - Híbrido</v>
       </c>
       <c r="D8" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="E8" t="str">
-        <v>Inglés : Nivel Avanzado</v>
+        <v>Inglés : Nivel Básico</v>
       </c>
       <c r="F8" t="str">
-        <v>As a Developer  you’ll be working as part of an integrated team to shorten the runway between smart, interesting brands and beautiful creative that can work in any medium. Reporting directly to our Director of Technology, you’ll act as a lead developer across several client accounts and work with others in our dev team along the way. Specifically you’ll be: ● Working in a creative team setting to ideate and develop strong creative ideas including planning, designing, and ultimately building our digital platforms ● Mentoring others, both on the development team, and cross-disciplinary peers, on best practice and new, innovative approaches and technologies ● Taking initiative to maintain strong knowledge of and keen interest in emerging tools and technologies ● Working in Agile and Jira to optimize how our teams work ● Create frequent pull requests to gain insight from other team members as well as communicate deliverables by showing what is complete. ● Help translate client feedback into clear next steps, often with Accounts and/or Production ● Communicates effectively, both internally and with producers/AMs/designers; to update progress, handle conflict resolution, and keep everyone updated Our Must-Haves ● 5+ years of professional experience with Web Development ● BA/BS degree or higher, preferably in CS or a related field ● Able to work with AWS and Linux server administration to set up and deploy new sites ● Able to create semantically correct and accessible HTML ● Expertise in JavaScript and other JavaScript frameworks like React and Next.js ● Expertise in CSS, with good judgment for what can be done in CSS without reverting to a JavaScript fix ● Complete understanding of git branching, merging and rebasing ● Experience with PHP a plus ● Strong proficiency with MySQL databases ● Excellent analytical and communication skills to share your ideas with the team and our clients Lines of Report Reporting to: Director of Technology Direct reports include: NA ..........................................</v>
+        <v xml:space="preserve">Descripción del puesto: Desarrollador Full Stack (Laravel, Vue.js) Modalidad: Híbrido Sobre nosotros En IDEA15, desarrollamos soluciones tecnológicas innovadoras enfocadas en automatización fiscal, facturación electrónica y sistemas administrativos para empresas en México. Valoramos la creatividad, la colaboración y el compromiso con la excelencia. Nuestro equipo es diverso y apasionado por crear productos funcionales, escalables y de alto impacto. Lo que harás - Desarrollar y mantener aplicaciones web utilizando Laravel y Vue.js. - Colaborar con equipos multifuncionales para definir, diseñar y enviar nuevas funcionalidades. - Optimizar aplicaciones para máxima velocidad y escalabilidad. - Participar en revisiones de código y fomentar las mejores prácticas de desarrollo. Lo que buscamos Habilidades obligatorias: - Experiencia comprobable en Laravel (PHP) y Vue.js con TypeScript. - Dominio de GIT para control de versiones. - Experiencia con bases de datos MySQL y PostgreSQL. Habilidades deseables: - Conocimiento de AdonisJS Framework. - Experiencia con TDD (Test Driven Development). - Buenas prácticas de documentación y trabajo colaborativo. Prestaciones y beneficios - Días de vacaciones y días personales. - Oportunidades de desarrollo profesional. - Ambiente de trabajo flexible y colaborativo. </v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>Web Developer - Remoto en HIRELINE</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="F9" t="str">
+        <v>As a Developer  you’ll be working as part of an integrated team to shorten the runway between smart, interesting brands and beautiful creative that can work in any medium. Reporting directly to our Director of Technology, you’ll act as a lead developer across several client accounts and work with others in our dev team along the way. Specifically you’ll be: ● Working in a creative team setting to ideate and develop strong creative ideas including planning, designing, and ultimately building our digital platforms ● Mentoring others, both on the development team, and cross-disciplinary peers, on best practice and new, innovative approaches and technologies ● Taking initiative to maintain strong knowledge of and keen interest in emerging tools and technologies ● Working in Agile and Jira to optimize how our teams work ● Create frequent pull requests to gain insight from other team members as well as communicate deliverables by showing what is complete. ● Help translate client feedback into clear next steps, often with Accounts and/or Production ● Communicates effectively, both internally and with producers/AMs/designers; to update progress, handle conflict resolution, and keep everyone updated Our Must-Haves ● 5+ years of professional experience with Web Development ● BA/BS degree or higher, preferably in CS or a related field ● Able to work with AWS and Linux server administration to set up and deploy new sites ● Able to create semantically correct and accessible HTML ● Expertise in JavaScript and other JavaScript frameworks like React and Next.js ● Expertise in CSS, with good judgment for what can be done in CSS without reverting to a JavaScript fix ● Complete understanding of git branching, merging and rebasing ● Experience with PHP a plus ● Strong proficiency with MySQL databases ● Excellent analytical and communication skills to share your ideas with the team and our clients Lines of Report Reporting to: Director of Technology Direct reports include: NA ............................................</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>Desarrollador .NET SQL Middle en Origis Consulting</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>$ 20,000 a 25,000 MXN (Neto)</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <v>Ciudad de México</v>
       </c>
-      <c r="D9" t="str">
-        <v>Empleado de tiempo completo</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="D10" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="E10" t="str">
         <v>Inglés : Nivel Básico</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <v>Profesional responsable de brindar soporte técnico especializado (Help Desk), así como del desarrollo, generación y análisis de reportes y bases de datos. Participa activamente en proyectos de desarrollo utilizando tecnologías .NET y servicios en la nube mediante Microsoft Azure. Este rol combina funciones operativas con el desarrollo de soluciones personalizadas para clientes internos y externos. Requisitos: Licenciatura e ingeniería en Sistemas de Información (Pasante o titulado)        Experiencia mínimo un 1 año en: ·           Bases de datos (consultas, cursores, manejo de procesos, análisis de información). ·           Desarrollo en PHP (manejo de librerías, conexión a bases de datos, generación de reportes). ·           Programación en C# y lenguaje .net. ·           Lógica de programación. Conocimientos en: ·           SQL intermedio (consultas, manejo de datos, análisis). ·           PHP básico / intermedio ·           C# básico ·           Lógica de programación ·           Conocimiento en HTML, JavaScript, Java ·           Generación de consultas en SQL ·           Excel básico/intermedio ·</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>